--- a/delta2/evidence/dfir/2020-06-10--dfir--ransom-lockbit--v1.xlsx
+++ b/delta2/evidence/dfir/2020-06-10--dfir--ransom-lockbit--v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E39626-B90F-FE44-BDB7-8A7C7B9680B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBA4119-92D5-B34E-82AB-E4D3746F5BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>ScriptContents</t>
-  </si>
-  <si>
-    <t>file-create--winos-dc</t>
   </si>
   <si>
     <t>Label</t>
@@ -1434,7 +1431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1450,28 +1447,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1482,19 +1479,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1534,10 +1531,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>28</v>
@@ -1555,16 +1552,16 @@
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>17</v>
@@ -1614,7 +1611,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>28</v>
@@ -1623,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>17</v>
@@ -1646,7 +1643,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1681,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>28</v>
@@ -1693,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>17</v>
@@ -1719,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -1741,7 +1738,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28:C29"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1754,7 +1751,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>20</v>
@@ -1839,19 +1836,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,7 +1896,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>28</v>
@@ -2058,9 +2055,9 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2077,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>28</v>
@@ -2116,9 +2113,6 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2152,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>28</v>
@@ -2293,7 +2287,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
@@ -2302,22 +2296,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>17</v>
@@ -2331,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2357,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
@@ -2372,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,7 +2404,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
